--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_50_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_50_1_replicas.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="322">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -43,9 +46,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -76,34 +76,46 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>0.999+/-0.0</t>
   </si>
   <si>
-    <t>0.818+/-0.0</t>
-  </si>
-  <si>
-    <t>0.812</t>
-  </si>
-  <si>
-    <t>0.996+/-0.003</t>
-  </si>
-  <si>
-    <t>0.62+/-0.034</t>
-  </si>
-  <si>
-    <t>0.59</t>
+    <t>0.812+/-0.0</t>
+  </si>
+  <si>
+    <t>0.808</t>
+  </si>
+  <si>
+    <t>0.996+/-0.002</t>
+  </si>
+  <si>
+    <t>0.59+/-0.062</t>
+  </si>
+  <si>
+    <t>0.559</t>
   </si>
   <si>
     <t>0.997+/-0.005</t>
   </si>
   <si>
-    <t>0.253+/-0.031</t>
-  </si>
-  <si>
-    <t>0.227</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
+    <t>0.228+/-0.028</t>
+  </si>
+  <si>
+    <t>0.213</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
   </si>
   <si>
     <t>0.802+/-0.001</t>
@@ -115,52 +127,52 @@
     <t>0.796</t>
   </si>
   <si>
-    <t>0.584+/-0.025</t>
-  </si>
-  <si>
-    <t>0.575+/-0.164</t>
+    <t>0.584+/-0.024</t>
+  </si>
+  <si>
+    <t>0.58+/-0.164</t>
   </si>
   <si>
     <t>0.433</t>
   </si>
   <si>
-    <t>0.057+/-0.006</t>
-  </si>
-  <si>
-    <t>0.057+/-0.026</t>
+    <t>0.057+/-0.005</t>
+  </si>
+  <si>
+    <t>0.057+/-0.025</t>
   </si>
   <si>
     <t>0.035</t>
   </si>
   <si>
-    <t>0.151+/-0.008</t>
-  </si>
-  <si>
-    <t>0.579+/-0.009</t>
-  </si>
-  <si>
-    <t>0.578+/-0.0</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>0.271+/-0.003</t>
-  </si>
-  <si>
-    <t>0.27+/-0.015</t>
-  </si>
-  <si>
-    <t>0.259</t>
-  </si>
-  <si>
-    <t>0.646+/-0.016</t>
-  </si>
-  <si>
-    <t>0.642+/-0.026</t>
-  </si>
-  <si>
-    <t>0.616</t>
+    <t>0.157+/-0.011</t>
+  </si>
+  <si>
+    <t>0.572+/-0.008</t>
+  </si>
+  <si>
+    <t>0.573+/-0.0</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>0.269+/-0.002</t>
+  </si>
+  <si>
+    <t>0.271+/-0.016</t>
+  </si>
+  <si>
+    <t>0.263</t>
+  </si>
+  <si>
+    <t>0.656+/-0.014</t>
+  </si>
+  <si>
+    <t>0.659+/-0.029</t>
+  </si>
+  <si>
+    <t>0.64</t>
   </si>
   <si>
     <t>0.005+/-0.001</t>
@@ -169,826 +181,808 @@
     <t>0.723+/-0.005</t>
   </si>
   <si>
-    <t>0.721+/-0.0</t>
-  </si>
-  <si>
-    <t>0.711</t>
-  </si>
-  <si>
-    <t>0.314+/-0.004</t>
-  </si>
-  <si>
-    <t>0.311+/-0.021</t>
-  </si>
-  <si>
-    <t>0.277</t>
-  </si>
-  <si>
-    <t>0.318+/-0.015</t>
-  </si>
-  <si>
-    <t>0.316+/-0.033</t>
-  </si>
-  <si>
-    <t>0.269</t>
+    <t>0.722+/-0.0</t>
+  </si>
+  <si>
+    <t>0.715</t>
+  </si>
+  <si>
+    <t>0.314+/-0.005</t>
+  </si>
+  <si>
+    <t>0.311+/-0.018</t>
+  </si>
+  <si>
+    <t>0.288</t>
+  </si>
+  <si>
+    <t>0.317+/-0.012</t>
+  </si>
+  <si>
+    <t>0.315+/-0.026</t>
+  </si>
+  <si>
+    <t>0.283</t>
   </si>
   <si>
     <t>0.006+/-0.001</t>
   </si>
   <si>
-    <t>0.865+/-0.006</t>
-  </si>
-  <si>
-    <t>0.824+/-0.0</t>
-  </si>
-  <si>
-    <t>0.807</t>
-  </si>
-  <si>
-    <t>0.788+/-0.039</t>
-  </si>
-  <si>
-    <t>0.62+/-0.061</t>
+    <t>0.869+/-0.005</t>
+  </si>
+  <si>
+    <t>0.817</t>
+  </si>
+  <si>
+    <t>0.78+/-0.03</t>
+  </si>
+  <si>
+    <t>0.557+/-0.058</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>0.491+/-0.041</t>
+  </si>
+  <si>
+    <t>0.361+/-0.045</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>3.456+/-0.996</t>
+  </si>
+  <si>
+    <t>0.88+/-0.002</t>
+  </si>
+  <si>
+    <t>0.813+/-0.0</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.887+/-0.028</t>
+  </si>
+  <si>
+    <t>0.568+/-0.041</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>0.465+/-0.016</t>
+  </si>
+  <si>
+    <t>0.311+/-0.038</t>
+  </si>
+  <si>
+    <t>0.285</t>
+  </si>
+  <si>
+    <t>0.081+/-0.005</t>
+  </si>
+  <si>
+    <t>0.873+/-0.003</t>
+  </si>
+  <si>
+    <t>0.815+/-0.0</t>
+  </si>
+  <si>
+    <t>0.803</t>
+  </si>
+  <si>
+    <t>0.852+/-0.031</t>
+  </si>
+  <si>
+    <t>0.577+/-0.032</t>
+  </si>
+  <si>
+    <t>0.522</t>
+  </si>
+  <si>
+    <t>0.446+/-0.025</t>
+  </si>
+  <si>
+    <t>0.309+/-0.037</t>
+  </si>
+  <si>
+    <t>0.097+/-0.01</t>
+  </si>
+  <si>
+    <t>0.819+/-0.001</t>
+  </si>
+  <si>
+    <t>0.811+/-0.0</t>
+  </si>
+  <si>
+    <t>0.776+/-0.012</t>
+  </si>
+  <si>
+    <t>0.681+/-0.038</t>
+  </si>
+  <si>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>0.145+/-0.005</t>
+  </si>
+  <si>
+    <t>0.114+/-0.035</t>
+  </si>
+  <si>
+    <t>0.088</t>
+  </si>
+  <si>
+    <t>11.41+/-1.251</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.856+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.993+/-0.001</t>
+  </si>
+  <si>
+    <t>0.567+/-0.048</t>
+  </si>
+  <si>
+    <t>0.512</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.168+/-0.03</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>0.851+/-0.001</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.552+/-0.016</t>
+  </si>
+  <si>
+    <t>0.516+/-0.208</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.048+/-0.005</t>
+  </si>
+  <si>
+    <t>0.044+/-0.019</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>0.061+/-0.005</t>
+  </si>
+  <si>
+    <t>0.708+/-0.011</t>
+  </si>
+  <si>
+    <t>0.706+/-0.0</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.253+/-0.006</t>
+  </si>
+  <si>
+    <t>0.252+/-0.034</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>0.487+/-0.016</t>
+  </si>
+  <si>
+    <t>0.482+/-0.053</t>
+  </si>
+  <si>
+    <t>0.473</t>
+  </si>
+  <si>
+    <t>0.776+/-0.003</t>
+  </si>
+  <si>
+    <t>0.775+/-0.0</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.271+/-0.004</t>
+  </si>
+  <si>
+    <t>0.271+/-0.041</t>
+  </si>
+  <si>
+    <t>0.229</t>
+  </si>
+  <si>
+    <t>0.292+/-0.006</t>
+  </si>
+  <si>
+    <t>0.287+/-0.026</t>
+  </si>
+  <si>
+    <t>0.226</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.898+/-0.006</t>
+  </si>
+  <si>
+    <t>0.853+/-0.0</t>
+  </si>
+  <si>
+    <t>0.855</t>
+  </si>
+  <si>
+    <t>0.768+/-0.033</t>
+  </si>
+  <si>
+    <t>0.526+/-0.063</t>
   </si>
   <si>
     <t>0.539</t>
   </si>
   <si>
-    <t>0.458+/-0.043</t>
-  </si>
-  <si>
-    <t>0.341+/-0.067</t>
-  </si>
-  <si>
-    <t>0.293</t>
-  </si>
-  <si>
-    <t>2.725+/-0.703</t>
-  </si>
-  <si>
-    <t>0.881+/-0.003</t>
-  </si>
-  <si>
-    <t>0.815+/-0.0</t>
-  </si>
-  <si>
-    <t>0.892+/-0.031</t>
-  </si>
-  <si>
-    <t>0.577+/-0.044</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.467+/-0.018</t>
-  </si>
-  <si>
-    <t>0.314+/-0.033</t>
+    <t>0.459+/-0.07</t>
+  </si>
+  <si>
+    <t>0.309+/-0.069</t>
+  </si>
+  <si>
+    <t>0.222</t>
+  </si>
+  <si>
+    <t>2.756+/-0.399</t>
+  </si>
+  <si>
+    <t>0.914+/-0.003</t>
+  </si>
+  <si>
+    <t>0.852+/-0.0</t>
+  </si>
+  <si>
+    <t>0.854</t>
+  </si>
+  <si>
+    <t>0.894+/-0.014</t>
+  </si>
+  <si>
+    <t>0.511+/-0.065</t>
+  </si>
+  <si>
+    <t>0.525</t>
+  </si>
+  <si>
+    <t>0.481+/-0.023</t>
+  </si>
+  <si>
+    <t>0.279+/-0.047</t>
+  </si>
+  <si>
+    <t>0.262</t>
+  </si>
+  <si>
+    <t>0.07+/-0.008</t>
+  </si>
+  <si>
+    <t>0.913+/-0.003</t>
+  </si>
+  <si>
+    <t>0.859+/-0.0</t>
+  </si>
+  <si>
+    <t>0.877+/-0.024</t>
+  </si>
+  <si>
+    <t>0.552+/-0.068</t>
+  </si>
+  <si>
+    <t>0.524</t>
+  </si>
+  <si>
+    <t>0.486+/-0.03</t>
+  </si>
+  <si>
+    <t>0.3+/-0.044</t>
   </si>
   <si>
     <t>0.272</t>
   </si>
   <si>
-    <t>0.075+/-0.01</t>
-  </si>
-  <si>
-    <t>0.873+/-0.003</t>
-  </si>
-  <si>
-    <t>0.808</t>
-  </si>
-  <si>
-    <t>0.854+/-0.033</t>
-  </si>
-  <si>
-    <t>0.576+/-0.034</t>
-  </si>
-  <si>
-    <t>0.549</t>
-  </si>
-  <si>
-    <t>0.445+/-0.023</t>
-  </si>
-  <si>
-    <t>0.299+/-0.033</t>
-  </si>
-  <si>
-    <t>0.256</t>
-  </si>
-  <si>
-    <t>0.09+/-0.014</t>
-  </si>
-  <si>
-    <t>0.819+/-0.001</t>
-  </si>
-  <si>
-    <t>0.808+/-0.0</t>
-  </si>
-  <si>
-    <t>0.804</t>
-  </si>
-  <si>
-    <t>0.788+/-0.012</t>
-  </si>
-  <si>
-    <t>0.661+/-0.045</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.137+/-0.003</t>
-  </si>
-  <si>
-    <t>0.104+/-0.028</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>10.874+/-1.918</t>
-  </si>
-  <si>
-    <t>0.854+/-0.0</t>
-  </si>
-  <si>
-    <t>0.854</t>
-  </si>
-  <si>
-    <t>0.994+/-0.003</t>
-  </si>
-  <si>
-    <t>0.547+/-0.052</t>
-  </si>
-  <si>
-    <t>0.542</t>
-  </si>
-  <si>
-    <t>0.157+/-0.026</t>
+    <t>0.089+/-0.007</t>
+  </si>
+  <si>
+    <t>0.861+/-0.001</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.769+/-0.017</t>
+  </si>
+  <si>
+    <t>0.599+/-0.158</t>
+  </si>
+  <si>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>0.101+/-0.011</t>
+  </si>
+  <si>
+    <t>0.069+/-0.02</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>8.382+/-0.288</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.707+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.427+/-0.035</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.998+/-0.0</t>
+  </si>
+  <si>
+    <t>0.17+/-0.022</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.727+/-0.001</t>
+  </si>
+  <si>
+    <t>0.724+/-0.0</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.572+/-0.012</t>
+  </si>
+  <si>
+    <t>0.516+/-0.088</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>0.055+/-0.004</t>
+  </si>
+  <si>
+    <t>0.051+/-0.013</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>0.095+/-0.015</t>
+  </si>
+  <si>
+    <t>0.675+/-0.002</t>
+  </si>
+  <si>
+    <t>0.672+/-0.0</t>
+  </si>
+  <si>
+    <t>0.677</t>
+  </si>
+  <si>
+    <t>0.387+/-0.004</t>
+  </si>
+  <si>
+    <t>0.381+/-0.024</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>0.299+/-0.008</t>
+  </si>
+  <si>
+    <t>0.293+/-0.019</t>
+  </si>
+  <si>
+    <t>0.289</t>
+  </si>
+  <si>
+    <t>0.646+/-0.001</t>
+  </si>
+  <si>
+    <t>0.643+/-0.0</t>
+  </si>
+  <si>
+    <t>0.657</t>
+  </si>
+  <si>
+    <t>0.357+/-0.003</t>
+  </si>
+  <si>
+    <t>0.354+/-0.024</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.35+/-0.008</t>
+  </si>
+  <si>
+    <t>0.347+/-0.022</t>
+  </si>
+  <si>
+    <t>0.359</t>
+  </si>
+  <si>
+    <t>0.779+/-0.006</t>
+  </si>
+  <si>
+    <t>0.704+/-0.0</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>0.72+/-0.02</t>
+  </si>
+  <si>
+    <t>0.429+/-0.047</t>
+  </si>
+  <si>
+    <t>0.458</t>
+  </si>
+  <si>
+    <t>0.333+/-0.036</t>
+  </si>
+  <si>
+    <t>0.191+/-0.036</t>
+  </si>
+  <si>
+    <t>0.212</t>
+  </si>
+  <si>
+    <t>3.292+/-0.635</t>
+  </si>
+  <si>
+    <t>0.807+/-0.006</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>0.848+/-0.035</t>
+  </si>
+  <si>
+    <t>0.433+/-0.04</t>
+  </si>
+  <si>
+    <t>0.425</t>
+  </si>
+  <si>
+    <t>0.369+/-0.03</t>
+  </si>
+  <si>
+    <t>0.189+/-0.032</t>
+  </si>
+  <si>
+    <t>0.198</t>
+  </si>
+  <si>
+    <t>0.081+/-0.009</t>
+  </si>
+  <si>
+    <t>0.794+/-0.005</t>
+  </si>
+  <si>
+    <t>0.711+/-0.0</t>
+  </si>
+  <si>
+    <t>0.714</t>
+  </si>
+  <si>
+    <t>0.83+/-0.047</t>
+  </si>
+  <si>
+    <t>0.448+/-0.056</t>
+  </si>
+  <si>
+    <t>0.327+/-0.025</t>
+  </si>
+  <si>
+    <t>0.185+/-0.029</t>
+  </si>
+  <si>
+    <t>0.179</t>
+  </si>
+  <si>
+    <t>0.099+/-0.007</t>
+  </si>
+  <si>
+    <t>0.741+/-0.001</t>
+  </si>
+  <si>
+    <t>0.728+/-0.0</t>
+  </si>
+  <si>
+    <t>0.804+/-0.015</t>
+  </si>
+  <si>
+    <t>0.605+/-0.096</t>
+  </si>
+  <si>
+    <t>0.085+/-0.003</t>
+  </si>
+  <si>
+    <t>0.054+/-0.015</t>
+  </si>
+  <si>
+    <t>15.251+/-0.512</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.671+/-0.0</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>0.427+/-0.031</t>
+  </si>
+  <si>
+    <t>0.406</t>
+  </si>
+  <si>
+    <t>0.193+/-0.024</t>
+  </si>
+  <si>
+    <t>0.192</t>
+  </si>
+  <si>
+    <t>0.696+/-0.001</t>
+  </si>
+  <si>
+    <t>0.695+/-0.0</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.597+/-0.014</t>
+  </si>
+  <si>
+    <t>0.569+/-0.086</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.042+/-0.004</t>
+  </si>
+  <si>
+    <t>0.04+/-0.014</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.073+/-0.012</t>
+  </si>
+  <si>
+    <t>0.651+/-0.003</t>
+  </si>
+  <si>
+    <t>0.648+/-0.0</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>0.397+/-0.006</t>
+  </si>
+  <si>
+    <t>0.39+/-0.045</t>
+  </si>
+  <si>
+    <t>0.255+/-0.008</t>
+  </si>
+  <si>
+    <t>0.247+/-0.03</t>
+  </si>
+  <si>
+    <t>0.248</t>
+  </si>
+  <si>
+    <t>0.63+/-0.003</t>
+  </si>
+  <si>
+    <t>0.628+/-0.0</t>
+  </si>
+  <si>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>0.374+/-0.003</t>
+  </si>
+  <si>
+    <t>0.371+/-0.022</t>
+  </si>
+  <si>
+    <t>0.379</t>
+  </si>
+  <si>
+    <t>0.3+/-0.01</t>
+  </si>
+  <si>
+    <t>0.295+/-0.017</t>
+  </si>
+  <si>
+    <t>0.297</t>
+  </si>
+  <si>
+    <t>0.741+/-0.008</t>
+  </si>
+  <si>
+    <t>0.678+/-0.0</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.694+/-0.045</t>
+  </si>
+  <si>
+    <t>0.456+/-0.059</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.299+/-0.06</t>
+  </si>
+  <si>
+    <t>0.196+/-0.045</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>3.43+/-0.998</t>
+  </si>
+  <si>
+    <t>0.776+/-0.006</t>
+  </si>
+  <si>
+    <t>0.679+/-0.0</t>
+  </si>
+  <si>
+    <t>0.679</t>
+  </si>
+  <si>
+    <t>0.844+/-0.04</t>
+  </si>
+  <si>
+    <t>0.451+/-0.048</t>
+  </si>
+  <si>
+    <t>0.443</t>
+  </si>
+  <si>
+    <t>0.337+/-0.042</t>
+  </si>
+  <si>
+    <t>0.179+/-0.02</t>
+  </si>
+  <si>
+    <t>0.164</t>
+  </si>
+  <si>
+    <t>0.076+/-0.007</t>
+  </si>
+  <si>
+    <t>0.762+/-0.007</t>
+  </si>
+  <si>
+    <t>0.686+/-0.0</t>
+  </si>
+  <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>0.828+/-0.052</t>
+  </si>
+  <si>
+    <t>0.479+/-0.065</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.293+/-0.048</t>
+  </si>
+  <si>
+    <t>0.167+/-0.013</t>
   </si>
   <si>
     <t>0.161</t>
   </si>
   <si>
-    <t>0.851+/-0.0</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.847</t>
-  </si>
-  <si>
-    <t>0.55+/-0.017</t>
-  </si>
-  <si>
-    <t>0.52+/-0.201</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.046+/-0.005</t>
-  </si>
-  <si>
-    <t>0.043+/-0.018</t>
-  </si>
-  <si>
-    <t>0.025</t>
-  </si>
-  <si>
-    <t>0.237+/-0.049</t>
-  </si>
-  <si>
-    <t>0.684+/-0.012</t>
-  </si>
-  <si>
-    <t>0.683+/-0.0</t>
-  </si>
-  <si>
-    <t>0.678</t>
-  </si>
-  <si>
-    <t>0.242+/-0.007</t>
-  </si>
-  <si>
-    <t>0.241+/-0.031</t>
-  </si>
-  <si>
-    <t>0.232</t>
-  </si>
-  <si>
-    <t>0.521+/-0.018</t>
-  </si>
-  <si>
-    <t>0.516+/-0.056</t>
-  </si>
-  <si>
-    <t>0.495</t>
-  </si>
-  <si>
-    <t>0.008+/-0.003</t>
-  </si>
-  <si>
-    <t>0.765+/-0.003</t>
-  </si>
-  <si>
-    <t>0.763+/-0.0</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>0.26+/-0.003</t>
-  </si>
-  <si>
-    <t>0.256+/-0.023</t>
-  </si>
-  <si>
-    <t>0.235</t>
-  </si>
-  <si>
-    <t>0.308+/-0.007</t>
-  </si>
-  <si>
-    <t>0.302+/-0.024</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.009+/-0.002</t>
-  </si>
-  <si>
-    <t>0.899+/-0.004</t>
-  </si>
-  <si>
-    <t>0.856+/-0.0</t>
-  </si>
-  <si>
-    <t>0.859</t>
-  </si>
-  <si>
-    <t>0.773+/-0.024</t>
-  </si>
-  <si>
-    <t>0.534+/-0.071</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>0.464+/-0.037</t>
-  </si>
-  <si>
-    <t>0.304+/-0.053</t>
-  </si>
-  <si>
-    <t>0.283</t>
-  </si>
-  <si>
-    <t>4.218+/-1.448</t>
-  </si>
-  <si>
-    <t>0.914+/-0.003</t>
-  </si>
-  <si>
-    <t>0.852+/-0.0</t>
-  </si>
-  <si>
-    <t>0.852</t>
-  </si>
-  <si>
-    <t>0.895+/-0.016</t>
-  </si>
-  <si>
-    <t>0.512+/-0.033</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>0.481+/-0.026</t>
-  </si>
-  <si>
-    <t>0.283+/-0.042</t>
-  </si>
-  <si>
-    <t>0.075+/-0.006</t>
-  </si>
-  <si>
-    <t>0.913+/-0.003</t>
-  </si>
-  <si>
-    <t>0.853</t>
-  </si>
-  <si>
-    <t>0.868+/-0.026</t>
-  </si>
-  <si>
-    <t>0.508+/-0.039</t>
-  </si>
-  <si>
-    <t>0.518</t>
-  </si>
-  <si>
-    <t>0.494+/-0.033</t>
-  </si>
-  <si>
-    <t>0.286+/-0.041</t>
-  </si>
-  <si>
-    <t>0.254</t>
-  </si>
-  <si>
-    <t>0.093+/-0.008</t>
-  </si>
-  <si>
-    <t>0.86+/-0.001</t>
-  </si>
-  <si>
-    <t>0.853+/-0.0</t>
-  </si>
-  <si>
-    <t>0.849</t>
-  </si>
-  <si>
-    <t>0.77+/-0.016</t>
-  </si>
-  <si>
-    <t>0.593+/-0.151</t>
-  </si>
-  <si>
-    <t>0.464</t>
-  </si>
-  <si>
-    <t>0.099+/-0.011</t>
-  </si>
-  <si>
-    <t>0.068+/-0.019</t>
-  </si>
-  <si>
-    <t>0.047</t>
-  </si>
-  <si>
-    <t>9.541+/-1.322</t>
-  </si>
-  <si>
-    <t>0.709+/-0.0</t>
-  </si>
-  <si>
-    <t>0.704</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.434+/-0.027</t>
-  </si>
-  <si>
-    <t>0.414</t>
-  </si>
-  <si>
-    <t>0.998+/-0.0</t>
-  </si>
-  <si>
-    <t>0.173+/-0.021</t>
-  </si>
-  <si>
-    <t>0.169</t>
-  </si>
-  <si>
-    <t>0.004+/-0.002</t>
-  </si>
-  <si>
-    <t>0.727+/-0.001</t>
-  </si>
-  <si>
-    <t>0.725+/-0.0</t>
-  </si>
-  <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>0.568+/-0.012</t>
-  </si>
-  <si>
-    <t>0.527+/-0.086</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.055+/-0.003</t>
-  </si>
-  <si>
-    <t>0.053+/-0.012</t>
-  </si>
-  <si>
-    <t>0.054</t>
-  </si>
-  <si>
-    <t>0.132+/-0.024</t>
-  </si>
-  <si>
-    <t>0.678+/-0.002</t>
-  </si>
-  <si>
-    <t>0.676+/-0.0</t>
-  </si>
-  <si>
-    <t>0.679</t>
-  </si>
-  <si>
-    <t>0.387+/-0.005</t>
-  </si>
-  <si>
-    <t>0.384+/-0.016</t>
-  </si>
-  <si>
-    <t>0.387</t>
-  </si>
-  <si>
-    <t>0.282+/-0.008</t>
-  </si>
-  <si>
-    <t>0.277+/-0.025</t>
-  </si>
-  <si>
-    <t>0.274</t>
-  </si>
-  <si>
-    <t>0.008+/-0.004</t>
-  </si>
-  <si>
-    <t>0.648+/-0.002</t>
-  </si>
-  <si>
-    <t>0.646+/-0.0</t>
-  </si>
-  <si>
-    <t>0.652</t>
-  </si>
-  <si>
-    <t>0.36+/-0.002</t>
-  </si>
-  <si>
-    <t>0.358+/-0.02</t>
-  </si>
-  <si>
-    <t>0.364</t>
-  </si>
-  <si>
-    <t>0.348+/-0.006</t>
-  </si>
-  <si>
-    <t>0.347+/-0.013</t>
-  </si>
-  <si>
-    <t>0.342</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.776+/-0.009</t>
-  </si>
-  <si>
-    <t>0.703+/-0.0</t>
-  </si>
-  <si>
-    <t>0.708</t>
-  </si>
-  <si>
-    <t>0.723+/-0.033</t>
-  </si>
-  <si>
-    <t>0.417+/-0.045</t>
-  </si>
-  <si>
-    <t>0.442</t>
-  </si>
-  <si>
-    <t>0.308+/-0.04</t>
-  </si>
-  <si>
-    <t>0.178+/-0.033</t>
-  </si>
-  <si>
-    <t>0.216</t>
-  </si>
-  <si>
-    <t>3.713+/-1.457</t>
-  </si>
-  <si>
-    <t>0.808+/-0.006</t>
-  </si>
-  <si>
-    <t>0.708+/-0.0</t>
-  </si>
-  <si>
-    <t>0.843+/-0.028</t>
-  </si>
-  <si>
-    <t>0.441+/-0.04</t>
-  </si>
-  <si>
-    <t>0.453</t>
-  </si>
-  <si>
-    <t>0.376+/-0.025</t>
-  </si>
-  <si>
-    <t>0.199+/-0.026</t>
-  </si>
-  <si>
-    <t>0.208</t>
-  </si>
-  <si>
-    <t>0.072+/-0.005</t>
-  </si>
-  <si>
-    <t>0.794+/-0.005</t>
-  </si>
-  <si>
-    <t>0.71+/-0.0</t>
-  </si>
-  <si>
-    <t>0.718</t>
-  </si>
-  <si>
-    <t>0.831+/-0.042</t>
-  </si>
-  <si>
-    <t>0.444+/-0.057</t>
-  </si>
-  <si>
-    <t>0.478</t>
-  </si>
-  <si>
-    <t>0.324+/-0.024</t>
-  </si>
-  <si>
-    <t>0.182+/-0.026</t>
-  </si>
-  <si>
-    <t>0.186</t>
-  </si>
-  <si>
-    <t>0.086+/-0.003</t>
-  </si>
-  <si>
-    <t>0.741+/-0.001</t>
-  </si>
-  <si>
-    <t>0.729+/-0.0</t>
-  </si>
-  <si>
-    <t>0.726</t>
-  </si>
-  <si>
-    <t>0.81+/-0.018</t>
-  </si>
-  <si>
-    <t>0.625+/-0.097</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>0.087+/-0.002</t>
-  </si>
-  <si>
-    <t>0.056+/-0.016</t>
-  </si>
-  <si>
-    <t>0.052</t>
-  </si>
-  <si>
-    <t>16.386+/-2.833</t>
-  </si>
-  <si>
-    <t>0.671+/-0.0</t>
-  </si>
-  <si>
-    <t>0.661</t>
-  </si>
-  <si>
-    <t>0.426+/-0.03</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>0.195+/-0.029</t>
-  </si>
-  <si>
-    <t>0.182</t>
-  </si>
-  <si>
-    <t>0.696+/-0.001</t>
-  </si>
-  <si>
-    <t>0.695+/-0.0</t>
-  </si>
-  <si>
-    <t>0.695</t>
-  </si>
-  <si>
-    <t>0.601+/-0.013</t>
-  </si>
-  <si>
-    <t>0.572+/-0.086</t>
-  </si>
-  <si>
-    <t>0.556</t>
-  </si>
-  <si>
-    <t>0.042+/-0.004</t>
-  </si>
-  <si>
-    <t>0.04+/-0.014</t>
-  </si>
-  <si>
-    <t>0.044</t>
-  </si>
-  <si>
-    <t>0.081+/-0.013</t>
-  </si>
-  <si>
-    <t>0.638+/-0.004</t>
-  </si>
-  <si>
-    <t>0.636+/-0.0</t>
-  </si>
-  <si>
-    <t>0.642</t>
-  </si>
-  <si>
-    <t>0.384+/-0.004</t>
-  </si>
-  <si>
-    <t>0.381+/-0.032</t>
-  </si>
-  <si>
-    <t>0.393</t>
-  </si>
-  <si>
-    <t>0.289+/-0.01</t>
-  </si>
-  <si>
-    <t>0.288+/-0.028</t>
-  </si>
-  <si>
-    <t>0.297</t>
-  </si>
-  <si>
-    <t>0.006+/-0.0</t>
-  </si>
-  <si>
-    <t>0.627+/-0.003</t>
-  </si>
-  <si>
-    <t>0.624+/-0.0</t>
-  </si>
-  <si>
-    <t>0.638</t>
-  </si>
-  <si>
-    <t>0.375+/-0.003</t>
-  </si>
-  <si>
-    <t>0.373+/-0.026</t>
-  </si>
-  <si>
-    <t>0.394</t>
-  </si>
-  <si>
-    <t>0.319+/-0.007</t>
-  </si>
-  <si>
-    <t>0.319+/-0.019</t>
-  </si>
-  <si>
-    <t>0.325</t>
-  </si>
-  <si>
-    <t>0.007+/-0.0</t>
-  </si>
-  <si>
-    <t>0.749+/-0.008</t>
-  </si>
-  <si>
-    <t>0.679+/-0.0</t>
-  </si>
-  <si>
-    <t>0.693</t>
-  </si>
-  <si>
-    <t>0.738+/-0.036</t>
-  </si>
-  <si>
-    <t>0.453+/-0.046</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>0.29+/-0.052</t>
-  </si>
-  <si>
-    <t>0.17+/-0.025</t>
-  </si>
-  <si>
-    <t>0.126</t>
-  </si>
-  <si>
-    <t>3.611+/-0.924</t>
-  </si>
-  <si>
-    <t>0.779+/-0.006</t>
-  </si>
-  <si>
-    <t>0.677</t>
-  </si>
-  <si>
-    <t>0.844+/-0.04</t>
-  </si>
-  <si>
-    <t>0.453+/-0.057</t>
-  </si>
-  <si>
-    <t>0.438</t>
-  </si>
-  <si>
-    <t>0.351+/-0.047</t>
-  </si>
-  <si>
-    <t>0.188+/-0.03</t>
-  </si>
-  <si>
-    <t>0.168</t>
-  </si>
-  <si>
-    <t>0.076+/-0.005</t>
-  </si>
-  <si>
-    <t>0.765+/-0.007</t>
-  </si>
-  <si>
-    <t>0.684+/-0.0</t>
-  </si>
-  <si>
-    <t>0.815+/-0.056</t>
-  </si>
-  <si>
-    <t>0.472+/-0.068</t>
-  </si>
-  <si>
-    <t>0.436</t>
-  </si>
-  <si>
-    <t>0.315+/-0.054</t>
-  </si>
-  <si>
-    <t>0.176+/-0.021</t>
-  </si>
-  <si>
-    <t>0.154</t>
-  </si>
-  <si>
-    <t>0.098+/-0.009</t>
-  </si>
-  <si>
-    <t>0.705+/-0.001</t>
-  </si>
-  <si>
-    <t>0.697+/-0.0</t>
+    <t>0.103+/-0.012</t>
+  </si>
+  <si>
+    <t>0.706+/-0.001</t>
+  </si>
+  <si>
+    <t>0.698+/-0.0</t>
   </si>
   <si>
     <t>0.697</t>
   </si>
   <si>
-    <t>0.817+/-0.011</t>
-  </si>
-  <si>
-    <t>0.648+/-0.085</t>
-  </si>
-  <si>
-    <t>0.632</t>
-  </si>
-  <si>
-    <t>0.057+/-0.004</t>
-  </si>
-  <si>
-    <t>0.038+/-0.012</t>
+    <t>0.82+/-0.013</t>
+  </si>
+  <si>
+    <t>0.652+/-0.068</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>0.06+/-0.004</t>
+  </si>
+  <si>
+    <t>0.041+/-0.011</t>
   </si>
   <si>
     <t>0.042</t>
   </si>
   <si>
-    <t>21.488+/-3.602</t>
+    <t>17.954+/-1.933</t>
   </si>
 </sst>
 </file>
@@ -1389,28 +1383,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2">
-        <v>0.7986820871436255</v>
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1418,31 +1412,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3">
-        <v>0.7986820871436255</v>
+        <v>83</v>
+      </c>
+      <c r="J3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1450,31 +1444,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4">
-        <v>0.7983870967741935</v>
+        <v>84</v>
+      </c>
+      <c r="J4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1482,31 +1476,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1514,31 +1508,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1546,31 +1540,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1578,31 +1572,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1610,31 +1604,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1642,31 +1636,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1674,31 +1668,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1748,31 +1742,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J2">
-        <v>0.8500537923614847</v>
+        <v>158</v>
+      </c>
+      <c r="J2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1780,31 +1774,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3">
-        <v>0.8500537923614847</v>
+        <v>159</v>
+      </c>
+      <c r="J3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1812,31 +1806,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4">
-        <v>0.85</v>
+        <v>150</v>
+      </c>
+      <c r="J4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1844,31 +1838,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="J5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1876,31 +1870,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="J6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1908,31 +1902,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="J7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1940,31 +1934,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I8" t="s">
-        <v>168</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="J8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1972,31 +1966,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I9" t="s">
-        <v>169</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="J9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2004,31 +1998,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="H10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I10" t="s">
-        <v>170</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="J10" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2036,31 +2030,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="J11" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2110,31 +2104,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J2">
-        <v>0.7231038192576654</v>
+        <v>232</v>
+      </c>
+      <c r="J2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2142,31 +2136,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="H3" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="I3" t="s">
-        <v>241</v>
-      </c>
-      <c r="J3">
-        <v>0.7231038192576654</v>
+        <v>233</v>
+      </c>
+      <c r="J3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2174,31 +2168,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="H4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I4" t="s">
-        <v>242</v>
-      </c>
-      <c r="J4">
-        <v>0.7231182795698925</v>
+        <v>234</v>
+      </c>
+      <c r="J4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2206,31 +2200,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H5" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="I5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J5" t="s">
         <v>243</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2238,31 +2232,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H6" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="I6" t="s">
+        <v>236</v>
+      </c>
+      <c r="J6" t="s">
         <v>244</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2270,31 +2264,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="I7" t="s">
-        <v>245</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="J7" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2302,31 +2296,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I8" t="s">
-        <v>246</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="J8" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2334,31 +2328,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G9" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I9" t="s">
-        <v>247</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="J9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2366,31 +2360,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G10" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="H10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="I10" t="s">
-        <v>248</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>239</v>
+      </c>
+      <c r="J10" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2398,31 +2392,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H11" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I11" t="s">
-        <v>249</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="J11" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2472,31 +2466,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E2" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="F2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="G2" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="H2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="I2" t="s">
-        <v>314</v>
-      </c>
-      <c r="J2">
-        <v>0.6919042495965573</v>
+        <v>302</v>
+      </c>
+      <c r="J2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2504,31 +2498,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F3" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="G3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="I3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J3">
-        <v>0.6919042495965573</v>
+        <v>303</v>
+      </c>
+      <c r="J3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2536,31 +2530,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F4" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="G4" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="H4" t="s">
-        <v>116</v>
+        <v>294</v>
       </c>
       <c r="I4" t="s">
-        <v>316</v>
-      </c>
-      <c r="J4">
-        <v>0.6919354838709677</v>
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2568,31 +2562,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="F5" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G5" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="H5" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="I5" t="s">
-        <v>317</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>305</v>
+      </c>
+      <c r="J5" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2600,31 +2594,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="F6" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="G6" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="H6" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="I6" t="s">
-        <v>318</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>306</v>
+      </c>
+      <c r="J6" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2632,31 +2626,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E7" t="s">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="G7" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="H7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="I7" t="s">
-        <v>319</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>307</v>
+      </c>
+      <c r="J7" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2664,31 +2658,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="E8" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="F8" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="G8" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="H8" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="I8" t="s">
-        <v>320</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>308</v>
+      </c>
+      <c r="J8" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2696,31 +2690,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E9" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F9" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="G9" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="H9" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="I9" t="s">
-        <v>321</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>309</v>
+      </c>
+      <c r="J9" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2728,31 +2722,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D10" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E10" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F10" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="G10" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="H10" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="I10" t="s">
-        <v>322</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>310</v>
+      </c>
+      <c r="J10" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2760,31 +2754,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E11" t="s">
-        <v>285</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>295</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="H11" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="I11" t="s">
-        <v>323</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>311</v>
+      </c>
+      <c r="J11" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_50_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_50_1_replicas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="323">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -88,10 +88,13 @@
     <t>0.0</t>
   </si>
   <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
     <t>0.999+/-0.0</t>
   </si>
   <si>
-    <t>0.812+/-0.0</t>
+    <t>0.818+/-0.0</t>
   </si>
   <si>
     <t>0.808</t>
@@ -100,22 +103,22 @@
     <t>0.996+/-0.002</t>
   </si>
   <si>
-    <t>0.59+/-0.062</t>
+    <t>0.622+/-0.031</t>
   </si>
   <si>
     <t>0.559</t>
   </si>
   <si>
-    <t>0.997+/-0.005</t>
-  </si>
-  <si>
-    <t>0.228+/-0.028</t>
-  </si>
-  <si>
-    <t>0.213</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
+    <t>0.998+/-0.004</t>
+  </si>
+  <si>
+    <t>0.243+/-0.034</t>
+  </si>
+  <si>
+    <t>0.216</t>
+  </si>
+  <si>
+    <t>0.004+/-0.001</t>
   </si>
   <si>
     <t>0.802+/-0.001</t>
@@ -130,7 +133,7 @@
     <t>0.584+/-0.024</t>
   </si>
   <si>
-    <t>0.58+/-0.164</t>
+    <t>0.573+/-0.165</t>
   </si>
   <si>
     <t>0.433</t>
@@ -145,699 +148,702 @@
     <t>0.035</t>
   </si>
   <si>
-    <t>0.157+/-0.011</t>
-  </si>
-  <si>
-    <t>0.572+/-0.008</t>
-  </si>
-  <si>
-    <t>0.573+/-0.0</t>
-  </si>
-  <si>
-    <t>0.565</t>
-  </si>
-  <si>
-    <t>0.269+/-0.002</t>
-  </si>
-  <si>
-    <t>0.271+/-0.016</t>
+    <t>0.198+/-0.028</t>
+  </si>
+  <si>
+    <t>0.566+/-0.008</t>
+  </si>
+  <si>
+    <t>0.567+/-0.0</t>
+  </si>
+  <si>
+    <t>0.558</t>
+  </si>
+  <si>
+    <t>0.268+/-0.002</t>
+  </si>
+  <si>
+    <t>0.269+/-0.014</t>
   </si>
   <si>
     <t>0.263</t>
   </si>
   <si>
-    <t>0.656+/-0.014</t>
-  </si>
-  <si>
-    <t>0.659+/-0.029</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.723+/-0.005</t>
-  </si>
-  <si>
-    <t>0.722+/-0.0</t>
-  </si>
-  <si>
-    <t>0.715</t>
-  </si>
-  <si>
-    <t>0.314+/-0.005</t>
-  </si>
-  <si>
-    <t>0.311+/-0.018</t>
-  </si>
-  <si>
-    <t>0.288</t>
-  </si>
-  <si>
-    <t>0.317+/-0.012</t>
-  </si>
-  <si>
-    <t>0.315+/-0.026</t>
-  </si>
-  <si>
-    <t>0.283</t>
+    <t>0.668+/-0.013</t>
+  </si>
+  <si>
+    <t>0.668+/-0.027</t>
+  </si>
+  <si>
+    <t>0.661</t>
+  </si>
+  <si>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.728+/-0.007</t>
+  </si>
+  <si>
+    <t>0.728+/-0.0</t>
+  </si>
+  <si>
+    <t>0.718</t>
+  </si>
+  <si>
+    <t>0.318+/-0.007</t>
+  </si>
+  <si>
+    <t>0.315+/-0.017</t>
+  </si>
+  <si>
+    <t>0.291</t>
+  </si>
+  <si>
+    <t>0.303+/-0.016</t>
+  </si>
+  <si>
+    <t>0.301+/-0.029</t>
+  </si>
+  <si>
+    <t>0.277</t>
+  </si>
+  <si>
+    <t>0.009+/-0.001</t>
+  </si>
+  <si>
+    <t>0.867+/-0.005</t>
+  </si>
+  <si>
+    <t>0.824+/-0.0</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.797+/-0.036</t>
+  </si>
+  <si>
+    <t>0.615+/-0.044</t>
+  </si>
+  <si>
+    <t>0.542</t>
+  </si>
+  <si>
+    <t>0.458+/-0.045</t>
+  </si>
+  <si>
+    <t>0.35+/-0.062</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>6.703+/-1.787</t>
+  </si>
+  <si>
+    <t>0.88+/-0.003</t>
+  </si>
+  <si>
+    <t>0.816+/-0.0</t>
+  </si>
+  <si>
+    <t>0.887+/-0.03</t>
+  </si>
+  <si>
+    <t>0.582+/-0.055</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.466+/-0.018</t>
+  </si>
+  <si>
+    <t>0.32+/-0.041</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t>0.09+/-0.007</t>
+  </si>
+  <si>
+    <t>0.872+/-0.003</t>
+  </si>
+  <si>
+    <t>0.815+/-0.0</t>
+  </si>
+  <si>
+    <t>0.804</t>
+  </si>
+  <si>
+    <t>0.854+/-0.031</t>
+  </si>
+  <si>
+    <t>0.576+/-0.034</t>
+  </si>
+  <si>
+    <t>0.529</t>
+  </si>
+  <si>
+    <t>0.443+/-0.023</t>
+  </si>
+  <si>
+    <t>0.304+/-0.031</t>
+  </si>
+  <si>
+    <t>0.267</t>
+  </si>
+  <si>
+    <t>0.109+/-0.005</t>
+  </si>
+  <si>
+    <t>0.819+/-0.002</t>
+  </si>
+  <si>
+    <t>0.809+/-0.0</t>
+  </si>
+  <si>
+    <t>0.779+/-0.016</t>
+  </si>
+  <si>
+    <t>0.672+/-0.058</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>0.14+/-0.008</t>
+  </si>
+  <si>
+    <t>0.107+/-0.031</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>17.746+/-1.963</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.856+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.993+/-0.001</t>
+  </si>
+  <si>
+    <t>0.567+/-0.048</t>
+  </si>
+  <si>
+    <t>0.512</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.168+/-0.03</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>0.851+/-0.001</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.552+/-0.016</t>
+  </si>
+  <si>
+    <t>0.516+/-0.208</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.048+/-0.005</t>
+  </si>
+  <si>
+    <t>0.044+/-0.019</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>0.087+/-0.017</t>
+  </si>
+  <si>
+    <t>0.708+/-0.011</t>
+  </si>
+  <si>
+    <t>0.706+/-0.0</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.253+/-0.006</t>
+  </si>
+  <si>
+    <t>0.252+/-0.034</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>0.487+/-0.016</t>
+  </si>
+  <si>
+    <t>0.482+/-0.053</t>
+  </si>
+  <si>
+    <t>0.473</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.776+/-0.003</t>
+  </si>
+  <si>
+    <t>0.775+/-0.0</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.271+/-0.004</t>
+  </si>
+  <si>
+    <t>0.271+/-0.041</t>
+  </si>
+  <si>
+    <t>0.229</t>
+  </si>
+  <si>
+    <t>0.292+/-0.006</t>
+  </si>
+  <si>
+    <t>0.287+/-0.026</t>
+  </si>
+  <si>
+    <t>0.226</t>
+  </si>
+  <si>
+    <t>0.012+/-0.007</t>
+  </si>
+  <si>
+    <t>0.897+/-0.004</t>
+  </si>
+  <si>
+    <t>0.857+/-0.0</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.775+/-0.023</t>
+  </si>
+  <si>
+    <t>0.549+/-0.071</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.444+/-0.037</t>
+  </si>
+  <si>
+    <t>0.299+/-0.044</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>7.756+/-1.402</t>
+  </si>
+  <si>
+    <t>0.914+/-0.003</t>
+  </si>
+  <si>
+    <t>0.853+/-0.0</t>
+  </si>
+  <si>
+    <t>0.854</t>
+  </si>
+  <si>
+    <t>0.895+/-0.013</t>
+  </si>
+  <si>
+    <t>0.518+/-0.053</t>
+  </si>
+  <si>
+    <t>0.481+/-0.022</t>
+  </si>
+  <si>
+    <t>0.282+/-0.038</t>
+  </si>
+  <si>
+    <t>0.258</t>
+  </si>
+  <si>
+    <t>0.098+/-0.013</t>
+  </si>
+  <si>
+    <t>0.912+/-0.003</t>
+  </si>
+  <si>
+    <t>0.858+/-0.0</t>
+  </si>
+  <si>
+    <t>0.856</t>
+  </si>
+  <si>
+    <t>0.876+/-0.025</t>
+  </si>
+  <si>
+    <t>0.548+/-0.055</t>
+  </si>
+  <si>
+    <t>0.486+/-0.031</t>
+  </si>
+  <si>
+    <t>0.298+/-0.045</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.12+/-0.005</t>
+  </si>
+  <si>
+    <t>0.861+/-0.001</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.769+/-0.017</t>
+  </si>
+  <si>
+    <t>0.599+/-0.158</t>
+  </si>
+  <si>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>0.101+/-0.011</t>
+  </si>
+  <si>
+    <t>0.069+/-0.02</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>10.966+/-1.252</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.707+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.427+/-0.035</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.998+/-0.0</t>
+  </si>
+  <si>
+    <t>0.17+/-0.022</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.003+/-0.001</t>
+  </si>
+  <si>
+    <t>0.727+/-0.001</t>
+  </si>
+  <si>
+    <t>0.724+/-0.0</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.572+/-0.012</t>
+  </si>
+  <si>
+    <t>0.516+/-0.088</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>0.055+/-0.004</t>
+  </si>
+  <si>
+    <t>0.051+/-0.013</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>0.14+/-0.042</t>
+  </si>
+  <si>
+    <t>0.675+/-0.002</t>
+  </si>
+  <si>
+    <t>0.672+/-0.0</t>
+  </si>
+  <si>
+    <t>0.677</t>
+  </si>
+  <si>
+    <t>0.387+/-0.004</t>
+  </si>
+  <si>
+    <t>0.381+/-0.024</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>0.299+/-0.008</t>
+  </si>
+  <si>
+    <t>0.293+/-0.019</t>
+  </si>
+  <si>
+    <t>0.289</t>
+  </si>
+  <si>
+    <t>0.646+/-0.001</t>
+  </si>
+  <si>
+    <t>0.643+/-0.0</t>
+  </si>
+  <si>
+    <t>0.657</t>
+  </si>
+  <si>
+    <t>0.357+/-0.003</t>
+  </si>
+  <si>
+    <t>0.354+/-0.024</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.35+/-0.008</t>
+  </si>
+  <si>
+    <t>0.347+/-0.022</t>
+  </si>
+  <si>
+    <t>0.359</t>
+  </si>
+  <si>
+    <t>0.774+/-0.006</t>
+  </si>
+  <si>
+    <t>0.708+/-0.0</t>
+  </si>
+  <si>
+    <t>0.706</t>
+  </si>
+  <si>
+    <t>0.715+/-0.041</t>
+  </si>
+  <si>
+    <t>0.441+/-0.075</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>0.312+/-0.048</t>
+  </si>
+  <si>
+    <t>0.184+/-0.042</t>
+  </si>
+  <si>
+    <t>0.181</t>
+  </si>
+  <si>
+    <t>5.497+/-1.24</t>
+  </si>
+  <si>
+    <t>0.807+/-0.006</t>
+  </si>
+  <si>
+    <t>0.71+/-0.0</t>
+  </si>
+  <si>
+    <t>0.849+/-0.035</t>
+  </si>
+  <si>
+    <t>0.444+/-0.044</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.37+/-0.031</t>
+  </si>
+  <si>
+    <t>0.195+/-0.034</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.087+/-0.004</t>
+  </si>
+  <si>
+    <t>0.795+/-0.005</t>
+  </si>
+  <si>
+    <t>0.712+/-0.0</t>
+  </si>
+  <si>
+    <t>0.716</t>
+  </si>
+  <si>
+    <t>0.824+/-0.036</t>
+  </si>
+  <si>
+    <t>0.454+/-0.061</t>
+  </si>
+  <si>
+    <t>0.465</t>
+  </si>
+  <si>
+    <t>0.33+/-0.025</t>
+  </si>
+  <si>
+    <t>0.187+/-0.028</t>
+  </si>
+  <si>
+    <t>0.117+/-0.004</t>
+  </si>
+  <si>
+    <t>0.741+/-0.001</t>
+  </si>
+  <si>
+    <t>0.804+/-0.015</t>
+  </si>
+  <si>
+    <t>0.605+/-0.096</t>
+  </si>
+  <si>
+    <t>0.085+/-0.003</t>
+  </si>
+  <si>
+    <t>0.054+/-0.015</t>
+  </si>
+  <si>
+    <t>20.791+/-1.135</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.671+/-0.0</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>0.427+/-0.031</t>
+  </si>
+  <si>
+    <t>0.406</t>
+  </si>
+  <si>
+    <t>0.193+/-0.024</t>
+  </si>
+  <si>
+    <t>0.192</t>
+  </si>
+  <si>
+    <t>0.696+/-0.001</t>
+  </si>
+  <si>
+    <t>0.695+/-0.0</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.597+/-0.014</t>
+  </si>
+  <si>
+    <t>0.569+/-0.086</t>
+  </si>
+  <si>
+    <t>0.042+/-0.004</t>
+  </si>
+  <si>
+    <t>0.04+/-0.014</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.091+/-0.014</t>
+  </si>
+  <si>
+    <t>0.651+/-0.003</t>
+  </si>
+  <si>
+    <t>0.648+/-0.0</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>0.397+/-0.006</t>
+  </si>
+  <si>
+    <t>0.39+/-0.045</t>
+  </si>
+  <si>
+    <t>0.255+/-0.008</t>
+  </si>
+  <si>
+    <t>0.247+/-0.03</t>
+  </si>
+  <si>
+    <t>0.248</t>
   </si>
   <si>
     <t>0.006+/-0.001</t>
   </si>
   <si>
-    <t>0.869+/-0.005</t>
-  </si>
-  <si>
-    <t>0.817</t>
-  </si>
-  <si>
-    <t>0.78+/-0.03</t>
-  </si>
-  <si>
-    <t>0.557+/-0.058</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>0.491+/-0.041</t>
-  </si>
-  <si>
-    <t>0.361+/-0.045</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>3.456+/-0.996</t>
-  </si>
-  <si>
-    <t>0.88+/-0.002</t>
-  </si>
-  <si>
-    <t>0.813+/-0.0</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>0.887+/-0.028</t>
-  </si>
-  <si>
-    <t>0.568+/-0.041</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>0.465+/-0.016</t>
-  </si>
-  <si>
-    <t>0.311+/-0.038</t>
-  </si>
-  <si>
-    <t>0.285</t>
-  </si>
-  <si>
-    <t>0.081+/-0.005</t>
-  </si>
-  <si>
-    <t>0.873+/-0.003</t>
-  </si>
-  <si>
-    <t>0.815+/-0.0</t>
-  </si>
-  <si>
-    <t>0.803</t>
-  </si>
-  <si>
-    <t>0.852+/-0.031</t>
-  </si>
-  <si>
-    <t>0.577+/-0.032</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>0.446+/-0.025</t>
-  </si>
-  <si>
-    <t>0.309+/-0.037</t>
-  </si>
-  <si>
-    <t>0.097+/-0.01</t>
-  </si>
-  <si>
-    <t>0.819+/-0.001</t>
-  </si>
-  <si>
-    <t>0.811+/-0.0</t>
-  </si>
-  <si>
-    <t>0.776+/-0.012</t>
-  </si>
-  <si>
-    <t>0.681+/-0.038</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>0.145+/-0.005</t>
-  </si>
-  <si>
-    <t>0.114+/-0.035</t>
-  </si>
-  <si>
-    <t>0.088</t>
-  </si>
-  <si>
-    <t>11.41+/-1.251</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.856+/-0.0</t>
-  </si>
-  <si>
-    <t>0.851</t>
-  </si>
-  <si>
-    <t>0.993+/-0.001</t>
-  </si>
-  <si>
-    <t>0.567+/-0.048</t>
-  </si>
-  <si>
-    <t>0.512</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.168+/-0.03</t>
-  </si>
-  <si>
-    <t>0.154</t>
-  </si>
-  <si>
-    <t>0.851+/-0.001</t>
-  </si>
-  <si>
-    <t>0.847</t>
-  </si>
-  <si>
-    <t>0.552+/-0.016</t>
-  </si>
-  <si>
-    <t>0.516+/-0.208</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.048+/-0.005</t>
-  </si>
-  <si>
-    <t>0.044+/-0.019</t>
-  </si>
-  <si>
-    <t>0.025</t>
-  </si>
-  <si>
-    <t>0.061+/-0.005</t>
-  </si>
-  <si>
-    <t>0.708+/-0.011</t>
-  </si>
-  <si>
-    <t>0.706+/-0.0</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>0.253+/-0.006</t>
-  </si>
-  <si>
-    <t>0.252+/-0.034</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
-    <t>0.487+/-0.016</t>
-  </si>
-  <si>
-    <t>0.482+/-0.053</t>
-  </si>
-  <si>
-    <t>0.473</t>
-  </si>
-  <si>
-    <t>0.776+/-0.003</t>
-  </si>
-  <si>
-    <t>0.775+/-0.0</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>0.271+/-0.004</t>
-  </si>
-  <si>
-    <t>0.271+/-0.041</t>
-  </si>
-  <si>
-    <t>0.229</t>
-  </si>
-  <si>
-    <t>0.292+/-0.006</t>
-  </si>
-  <si>
-    <t>0.287+/-0.026</t>
-  </si>
-  <si>
-    <t>0.226</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.898+/-0.006</t>
-  </si>
-  <si>
-    <t>0.853+/-0.0</t>
-  </si>
-  <si>
-    <t>0.855</t>
-  </si>
-  <si>
-    <t>0.768+/-0.033</t>
-  </si>
-  <si>
-    <t>0.526+/-0.063</t>
-  </si>
-  <si>
-    <t>0.539</t>
-  </si>
-  <si>
-    <t>0.459+/-0.07</t>
-  </si>
-  <si>
-    <t>0.309+/-0.069</t>
-  </si>
-  <si>
-    <t>0.222</t>
-  </si>
-  <si>
-    <t>2.756+/-0.399</t>
-  </si>
-  <si>
-    <t>0.914+/-0.003</t>
-  </si>
-  <si>
-    <t>0.852+/-0.0</t>
-  </si>
-  <si>
-    <t>0.854</t>
-  </si>
-  <si>
-    <t>0.894+/-0.014</t>
-  </si>
-  <si>
-    <t>0.511+/-0.065</t>
-  </si>
-  <si>
-    <t>0.525</t>
-  </si>
-  <si>
-    <t>0.481+/-0.023</t>
-  </si>
-  <si>
-    <t>0.279+/-0.047</t>
-  </si>
-  <si>
-    <t>0.262</t>
-  </si>
-  <si>
-    <t>0.07+/-0.008</t>
-  </si>
-  <si>
-    <t>0.913+/-0.003</t>
-  </si>
-  <si>
-    <t>0.859+/-0.0</t>
-  </si>
-  <si>
-    <t>0.877+/-0.024</t>
-  </si>
-  <si>
-    <t>0.552+/-0.068</t>
-  </si>
-  <si>
-    <t>0.524</t>
-  </si>
-  <si>
-    <t>0.486+/-0.03</t>
-  </si>
-  <si>
-    <t>0.3+/-0.044</t>
-  </si>
-  <si>
-    <t>0.272</t>
-  </si>
-  <si>
-    <t>0.089+/-0.007</t>
-  </si>
-  <si>
-    <t>0.861+/-0.001</t>
-  </si>
-  <si>
-    <t>0.849</t>
-  </si>
-  <si>
-    <t>0.769+/-0.017</t>
-  </si>
-  <si>
-    <t>0.599+/-0.158</t>
-  </si>
-  <si>
-    <t>0.483</t>
-  </si>
-  <si>
-    <t>0.101+/-0.011</t>
-  </si>
-  <si>
-    <t>0.069+/-0.02</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>8.382+/-0.288</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.707+/-0.0</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.427+/-0.035</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>0.998+/-0.0</t>
-  </si>
-  <si>
-    <t>0.17+/-0.022</t>
-  </si>
-  <si>
-    <t>0.148</t>
-  </si>
-  <si>
-    <t>0.727+/-0.001</t>
-  </si>
-  <si>
-    <t>0.724+/-0.0</t>
-  </si>
-  <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>0.572+/-0.012</t>
-  </si>
-  <si>
-    <t>0.516+/-0.088</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>0.055+/-0.004</t>
-  </si>
-  <si>
-    <t>0.051+/-0.013</t>
-  </si>
-  <si>
-    <t>0.052</t>
-  </si>
-  <si>
-    <t>0.095+/-0.015</t>
-  </si>
-  <si>
-    <t>0.675+/-0.002</t>
-  </si>
-  <si>
-    <t>0.672+/-0.0</t>
-  </si>
-  <si>
-    <t>0.677</t>
-  </si>
-  <si>
-    <t>0.387+/-0.004</t>
-  </si>
-  <si>
-    <t>0.381+/-0.024</t>
-  </si>
-  <si>
-    <t>0.388</t>
-  </si>
-  <si>
-    <t>0.299+/-0.008</t>
-  </si>
-  <si>
-    <t>0.293+/-0.019</t>
-  </si>
-  <si>
-    <t>0.289</t>
-  </si>
-  <si>
-    <t>0.646+/-0.001</t>
-  </si>
-  <si>
-    <t>0.643+/-0.0</t>
-  </si>
-  <si>
-    <t>0.657</t>
-  </si>
-  <si>
-    <t>0.357+/-0.003</t>
-  </si>
-  <si>
-    <t>0.354+/-0.024</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.35+/-0.008</t>
-  </si>
-  <si>
-    <t>0.347+/-0.022</t>
-  </si>
-  <si>
-    <t>0.359</t>
-  </si>
-  <si>
-    <t>0.779+/-0.006</t>
-  </si>
-  <si>
-    <t>0.704+/-0.0</t>
-  </si>
-  <si>
-    <t>0.712</t>
-  </si>
-  <si>
-    <t>0.72+/-0.02</t>
-  </si>
-  <si>
-    <t>0.429+/-0.047</t>
-  </si>
-  <si>
-    <t>0.458</t>
-  </si>
-  <si>
-    <t>0.333+/-0.036</t>
-  </si>
-  <si>
-    <t>0.191+/-0.036</t>
-  </si>
-  <si>
-    <t>0.212</t>
-  </si>
-  <si>
-    <t>3.292+/-0.635</t>
-  </si>
-  <si>
-    <t>0.807+/-0.006</t>
-  </si>
-  <si>
-    <t>0.704</t>
-  </si>
-  <si>
-    <t>0.848+/-0.035</t>
-  </si>
-  <si>
-    <t>0.433+/-0.04</t>
-  </si>
-  <si>
-    <t>0.425</t>
-  </si>
-  <si>
-    <t>0.369+/-0.03</t>
-  </si>
-  <si>
-    <t>0.189+/-0.032</t>
-  </si>
-  <si>
-    <t>0.198</t>
-  </si>
-  <si>
-    <t>0.081+/-0.009</t>
-  </si>
-  <si>
-    <t>0.794+/-0.005</t>
-  </si>
-  <si>
-    <t>0.711+/-0.0</t>
-  </si>
-  <si>
-    <t>0.714</t>
-  </si>
-  <si>
-    <t>0.83+/-0.047</t>
-  </si>
-  <si>
-    <t>0.448+/-0.056</t>
-  </si>
-  <si>
-    <t>0.327+/-0.025</t>
-  </si>
-  <si>
-    <t>0.185+/-0.029</t>
-  </si>
-  <si>
-    <t>0.179</t>
-  </si>
-  <si>
-    <t>0.099+/-0.007</t>
-  </si>
-  <si>
-    <t>0.741+/-0.001</t>
-  </si>
-  <si>
-    <t>0.728+/-0.0</t>
-  </si>
-  <si>
-    <t>0.804+/-0.015</t>
-  </si>
-  <si>
-    <t>0.605+/-0.096</t>
-  </si>
-  <si>
-    <t>0.085+/-0.003</t>
-  </si>
-  <si>
-    <t>0.054+/-0.015</t>
-  </si>
-  <si>
-    <t>15.251+/-0.512</t>
-  </si>
-  <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.671+/-0.0</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.427+/-0.031</t>
-  </si>
-  <si>
-    <t>0.406</t>
-  </si>
-  <si>
-    <t>0.193+/-0.024</t>
-  </si>
-  <si>
-    <t>0.192</t>
-  </si>
-  <si>
-    <t>0.696+/-0.001</t>
-  </si>
-  <si>
-    <t>0.695+/-0.0</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.597+/-0.014</t>
-  </si>
-  <si>
-    <t>0.569+/-0.086</t>
-  </si>
-  <si>
-    <t>0.578</t>
-  </si>
-  <si>
-    <t>0.042+/-0.004</t>
-  </si>
-  <si>
-    <t>0.04+/-0.014</t>
-  </si>
-  <si>
-    <t>0.045</t>
-  </si>
-  <si>
-    <t>0.073+/-0.012</t>
-  </si>
-  <si>
-    <t>0.651+/-0.003</t>
-  </si>
-  <si>
-    <t>0.648+/-0.0</t>
-  </si>
-  <si>
-    <t>0.648</t>
-  </si>
-  <si>
-    <t>0.397+/-0.006</t>
-  </si>
-  <si>
-    <t>0.39+/-0.045</t>
-  </si>
-  <si>
-    <t>0.255+/-0.008</t>
-  </si>
-  <si>
-    <t>0.247+/-0.03</t>
-  </si>
-  <si>
-    <t>0.248</t>
-  </si>
-  <si>
     <t>0.63+/-0.003</t>
   </si>
   <si>
@@ -865,94 +871,91 @@
     <t>0.297</t>
   </si>
   <si>
-    <t>0.741+/-0.008</t>
-  </si>
-  <si>
-    <t>0.678+/-0.0</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>0.694+/-0.045</t>
-  </si>
-  <si>
-    <t>0.456+/-0.059</t>
-  </si>
-  <si>
-    <t>0.411</t>
-  </si>
-  <si>
-    <t>0.299+/-0.06</t>
-  </si>
-  <si>
-    <t>0.196+/-0.045</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>3.43+/-0.998</t>
+    <t>0.749+/-0.009</t>
+  </si>
+  <si>
+    <t>0.673+/-0.0</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.715+/-0.034</t>
+  </si>
+  <si>
+    <t>0.431+/-0.026</t>
+  </si>
+  <si>
+    <t>0.489</t>
+  </si>
+  <si>
+    <t>0.311+/-0.039</t>
+  </si>
+  <si>
+    <t>0.186+/-0.03</t>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t>7.442+/-1.959</t>
   </si>
   <si>
     <t>0.776+/-0.006</t>
   </si>
   <si>
-    <t>0.679+/-0.0</t>
-  </si>
-  <si>
-    <t>0.679</t>
-  </si>
-  <si>
-    <t>0.844+/-0.04</t>
-  </si>
-  <si>
-    <t>0.451+/-0.048</t>
-  </si>
-  <si>
-    <t>0.443</t>
-  </si>
-  <si>
-    <t>0.337+/-0.042</t>
-  </si>
-  <si>
-    <t>0.179+/-0.02</t>
-  </si>
-  <si>
-    <t>0.164</t>
-  </si>
-  <si>
-    <t>0.076+/-0.007</t>
-  </si>
-  <si>
-    <t>0.762+/-0.007</t>
-  </si>
-  <si>
-    <t>0.686+/-0.0</t>
-  </si>
-  <si>
-    <t>0.683</t>
-  </si>
-  <si>
-    <t>0.828+/-0.052</t>
-  </si>
-  <si>
-    <t>0.479+/-0.065</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>0.293+/-0.048</t>
-  </si>
-  <si>
-    <t>0.167+/-0.013</t>
-  </si>
-  <si>
-    <t>0.161</t>
-  </si>
-  <si>
-    <t>0.103+/-0.012</t>
+    <t>0.68+/-0.0</t>
+  </si>
+  <si>
+    <t>0.845+/-0.04</t>
+  </si>
+  <si>
+    <t>0.457+/-0.058</t>
+  </si>
+  <si>
+    <t>0.438</t>
+  </si>
+  <si>
+    <t>0.337+/-0.043</t>
+  </si>
+  <si>
+    <t>0.18+/-0.022</t>
+  </si>
+  <si>
+    <t>0.166</t>
+  </si>
+  <si>
+    <t>0.097+/-0.004</t>
+  </si>
+  <si>
+    <t>0.762+/-0.006</t>
+  </si>
+  <si>
+    <t>0.689+/-0.0</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.829+/-0.059</t>
+  </si>
+  <si>
+    <t>0.494+/-0.059</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.294+/-0.05</t>
+  </si>
+  <si>
+    <t>0.17+/-0.018</t>
+  </si>
+  <si>
+    <t>0.159</t>
+  </si>
+  <si>
+    <t>0.129+/-0.005</t>
   </si>
   <si>
     <t>0.706+/-0.001</t>
@@ -982,7 +985,7 @@
     <t>0.042</t>
   </si>
   <si>
-    <t>17.954+/-1.933</t>
+    <t>23.764+/-1.549</t>
   </si>
 </sst>
 </file>
@@ -1383,28 +1386,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1415,28 +1418,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1447,28 +1450,28 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1479,28 +1482,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1511,28 +1514,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1543,28 +1546,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1575,28 +1578,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1607,28 +1610,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1639,28 +1642,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1668,31 +1671,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1742,31 +1745,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1774,31 +1777,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
         <v>102</v>
       </c>
-      <c r="D3" t="s">
-        <v>100</v>
-      </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1806,31 +1809,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1841,28 +1844,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1873,28 +1876,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1905,28 +1908,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1937,28 +1940,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1969,28 +1972,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2001,28 +2004,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2030,31 +2033,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2104,31 +2107,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2136,31 +2139,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H3" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="I3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J3" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2168,31 +2171,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H4" t="s">
-        <v>224</v>
+        <v>123</v>
       </c>
       <c r="I4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2203,28 +2206,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2235,28 +2238,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2267,28 +2270,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I7" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="J7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2299,28 +2302,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2331,28 +2334,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H9" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2363,28 +2366,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I10" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="J10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2392,31 +2395,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H11" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2466,31 +2469,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2498,31 +2501,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2530,31 +2533,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H4" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="I4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2565,28 +2568,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2597,28 +2600,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2629,28 +2632,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2661,28 +2664,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2693,28 +2696,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2725,28 +2728,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2754,31 +2757,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
